--- a/menu.xlsx
+++ b/menu.xlsx
@@ -2,27 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17540" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +57,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -347,11 +354,14 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" width="16.1640625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1681,4 +1691,1348 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C24:G72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>カテゴリ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>価格</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>kongetsu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>とりメンチカツ</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              鶏の巣をイメージして商品化しました。プルプルな温泉玉子にポテサラまで楽しめる大満足の一皿。
+            </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>kongetsu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>だし巻き</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>玉子とだしの風味がたっぷり！大根おろしでさっぱり、マヨネーズで濃いめにも！</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>kongetsu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>淡路島産新たまねぎの揚げだし</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>じっくり揚げることで新玉の甘みを引き出した、素材を楽しむ創作料理。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>もも貴族焼（たれ）</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>鳥貴族の代名詞、名物貴族焼!!もも肉とネギとの絶妙なハーモニーをご賞味あれ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>もも貴族焼（塩）</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>焼鳥通は塩で食す。もも肉の味わいを塩が引き締め甘いネギが肉の旨みと見事にマッチ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>もも貴族焼（スパイス）</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>スパイス、ハーブが舌を刺激し、味覚を立体化！もも肉の味を際だたせるスパイシーな逸品。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>むね貴族焼（たれ）</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>むね肉ブーム到来!?とろみあるネギとたれが低脂肪のむね肉の旨みを引き出し絶品に。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>むね貴族焼（塩）</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>むね肉のさっぱりとした旨みを、塩が引きたてる。甘み立つネギとのマッチングを楽しんで。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>むね貴族焼（スパイス）</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>むね肉をスパイシーに楽しみたいならコレ。キリッとした刺激が舌から鼻を抜け、後味爽やか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ちからこぶ塩</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>清涼感のある柚子胡椒がジューシーな旨みを引き出す絶品焼き！</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>三角（ぼんじり）</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>鶏肉でもっとも脂の乗っている部位がこの“三角”。口に広がるコクと旨みの二重奏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>手羽先</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>コラーゲンが豊富で、弾力性ある歯応えも楽しい。お店の中で野趣に親しむ。肉汁の旨みを堪能しよう。（※1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>つくね塩</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>豊かな風味を持ったつくねを塩でシンプルに。大葉の香りが食欲を刺激する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ささみ</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>高タンパクながら、すっきりとした風味。やわらかで淡白な味は、身体にも優しい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>砂ずり（砂肝）</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>食感が楽しい!!オリジナルブレンドの塩が、コリコリと噛む心地よさを引き立てる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>かわ塩</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>かわのなかでも旨みが多いといわれる首かわだけを使用。塩が引き出す油の旨みを堪能。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>やげんなんこつ</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>独特の食感がクセになる！胸骨の先にあるなんこつ。コリコリと味わえば、思わず笑顔に。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ひざなんこつ</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>旨みを引き出す絶妙の塩加減！ひざなんこつは脂肪分控えめでヘルシー。存分にコリコリ食感を楽しもう！</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ちからこぶたれ</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ジューシーで甘みのあるたれに、辛味噌のアクセントが好印象！</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>みたれ（もも肉）</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>迷ったときはやっぱこれでしょ！肉の魅力を引き出すたれが、旨みをふっくらと包み込む。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>きも（レバー）</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>濃厚で、クリーミーな味わい。店内の串打ちだから臭みなし。口中に広がる豊かな後味も魅力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>つくねチーズ焼</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>女性に大人気!!チーズが肉汁を包み込み、大葉がアクセントに。たれとチーズの相性も抜群！</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>つくねたれ</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>たれは芳醇でコクのある味わい。噛むほどに広がる肉の旨みをご堪能あれ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>かわたれ</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>余分な脂肪は下処理でカット。オリジナルのたれと合わせて、油の旨み分だけを味わう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ハートたれ</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ぷりっとした食感に複雑な味を隠しているのがハート。香ばしいたれが食欲を刺激する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>むね肉明太マヨネーズ風焼</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>明太には国産の魚卵を使用。あっさりとしたむね肉を海の風味で濃厚に。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>もちもちチーズ焼</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>鳥貴族のたれは、もちにもよく合うんです。チーズでしっかりとした味に整えました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>yakitori</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>豚バラ串焼</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>豚バラは脂の旨味で選びたい。オリジナルの香辛料がほどよく旨味を引き立たせます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ippin</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>トリキの唐揚</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>とりあえず唐揚!!淡路島産玉ねぎ使用の特製パウダーに漬け込み、サクサク、ジューシーな味に仕上げました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ippin</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ポテトフライ</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>自然な甘味の国産じゃがいも使用。歯ざわりはほっこり、なめらか。バターソースやケチャップでどうぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ippin</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>粗挽ポークソーセージ串焼</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>国産のポークを使用。しゃきっと噛めば、肉の旨味がしっかり、ジューシー。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ippin</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>チキン南蛮</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>揚げたてのカリッとして香ばしい食感と、モモ肉のやわらかでジューシーな食感。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ippin</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>カマンベールコロッケ</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>人気の秘密はもちトロ食感！カマンベール、クリーム、チェダーチーズをミックス、豊かな風味がやみつきに。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ippin</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ひざなんこつ唐揚</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ビールのつまみに◎。サクサク、コリコリと噛むほどにうま味が味わえる。この塩味がたまらない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ippin</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ふんわり山芋の鉄板焼</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>口の中で柔らかく溶ける山芋と、こくを感じるだしのハーモニー。濃厚な山芋の味が楽しめます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>sarada</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>超！白ねぎ塩こんぶ</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>焼鳥にも、ご飯ものにも合う一品。白ねぎの食感と塩こんぶ、純正胡麻油の風味も相まって、箸がとまらない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>sarada</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>枝豆</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ビールのおつまみの大定番。甘み引き立つうす塩味に仕上げました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sarada</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>国産大豆の冷やっこ</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>国産大豆と天然にがりを使用した「生搾り製法」。昔ながらの豆腐をだし醤油で。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sarada</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>チャンジャ</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>こりこりした食感、噛んでいくうちにわき上がる辛さと旨味。ビールがすすむこと間違いなし。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>sarada</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ピリ辛キューリ漬</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ついつい手が出るピリ辛キューリ。ほどよい酸味のパリパリきゅうり。ピリ辛たれをマッチング。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>sarada</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>味付煮玉子</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>料亭風のだしをしみこませ、上品に仕上げた玉子好きも大納得の一品。とろーり半熟の黄身が絶品です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>gohan</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>とり釜飯</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>自慢の鶏ガラスープでお米を炊きあげました。一粒一粒にしみこんだ鶏のうま味をご堪能ください。（※1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>gohan</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>とり白湯めん</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>麺はもちもち、スープはとろっとして濃厚な味わい。鶏の旨みを味わえる締めの一品です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>gohan</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>とり雑炊</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>〆の定番が復活！厳選の鶏ガラスープをベースに、あっさりとした仕上がり。旨味たっぷりの雑炊でご馳走様！</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>gohan</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>焼とり丼</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>鳥貴族のたれは、実はご飯にもよく合うんです！もも肉とご飯とたれのハーモニーをご賞味ください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>gohan</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>白ごはん(味噌汁付)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>熱々の白ご飯とお味噌汁のセットはじめました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>gohan</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>黒蜜抹茶きな粉アイス</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>天然うぐいす粉に宇治抹茶をブレンドしたアイス。濃厚な黒蜜が美味。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>gohan</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>カシスシャーベット</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>濃厚な風味と甘酸っぱいカシスの果汁感を思う存分贅沢に♪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>